--- a/biology/Botanique/Chrysomèle_du_peuplier/Chrysomèle_du_peuplier.xlsx
+++ b/biology/Botanique/Chrysomèle_du_peuplier/Chrysomèle_du_peuplier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chrysom%C3%A8le_du_peuplier</t>
+          <t>Chrysomèle_du_peuplier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysomela populi
 La Chrysomèle du peuplier ou Mélasome du peuplier ou encore Lina du peuplier ( Chrysomela populi L. ou Melasoma populi (Linné) ou Lina populi ), est une espèce d'insectes coléoptères phytophages de la famille des chrysomélidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chrysom%C3%A8le_du_peuplier</t>
+          <t>Chrysomèle_du_peuplier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grande chrysomèle au corps long de 10 à 12 mm. Le prothorax est presque noir. Les élytres sont de couleur orangé à rouge vif, parfois avec des taches sombres. Petite tache noire à l'apex des élytres. La femelle est légèrement plus grande que le mâle.
 Confusions possibles avec Chrysomela saliceti et Chrysomela tremulae.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chrysom%C3%A8le_du_peuplier</t>
+          <t>Chrysomèle_du_peuplier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : de la France à la Scandinavie et à la Russie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chrysom%C3%A8le_du_peuplier</t>
+          <t>Chrysomèle_du_peuplier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chrysomèle du peuplier vit essentiellement sur les feuilles du tremble et du saule marsault.
 L'adulte est visible d'avril à septembre. Hivernage en hiver de la dernière génération dans la litière.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chrysom%C3%A8le_du_peuplier</t>
+          <t>Chrysomèle_du_peuplier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Chinery, Insectes d'Europe en couleurs, Paris, Bordas, novembre 1987, 486 p. (ISBN 978-2-04-012575-2 et 2-04-012575-2), p. 316
 Michael Chinery, Insectes de France et d'Europe occidentale, Paris, Flammarion, août 2012, 320 p. (ISBN 978-2-08-128823-2), p. 282-283.
